--- a/cost_sheet.xlsx
+++ b/cost_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GestionOrganisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C59967-B67E-4076-AAC5-853F03906D2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A0897A-8950-4331-82AB-B0CF996AA73E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="0" windowWidth="29724" windowHeight="13980" xr2:uid="{0AAEF879-C82A-4E57-94E3-86B92779800C}"/>
+    <workbookView xWindow="4980" yWindow="0" windowWidth="29724" windowHeight="13980" xr2:uid="{0AAEF879-C82A-4E57-94E3-86B92779800C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,31 +25,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Coûts</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>XP</t>
-  </si>
-  <si>
-    <t>Credits/Min</t>
-  </si>
-  <si>
-    <t>base cred:</t>
-  </si>
-  <si>
-    <t>Action</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t>heal zone</t>
+  </si>
+  <si>
+    <t>improve zone</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>place cost</t>
+  </si>
+  <si>
+    <t>ticks per minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health </t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>zone capture time</t>
+  </si>
+  <si>
+    <t>terminal lvl</t>
+  </si>
+  <si>
+    <t>zone lvl</t>
+  </si>
+  <si>
+    <t>terminal smash power</t>
+  </si>
+  <si>
+    <t>smash cost</t>
+  </si>
+  <si>
+    <t>lvl 1</t>
+  </si>
+  <si>
+    <t>Terminal attack strenth</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>player lvl</t>
+  </si>
+  <si>
+    <t>terminal time to kill</t>
+  </si>
+  <si>
+    <t>in minute</t>
+  </si>
+  <si>
+    <t>time to lvl up</t>
+  </si>
+  <si>
+    <t>hp + cost</t>
+  </si>
+  <si>
+    <t>atk + cost</t>
+  </si>
+  <si>
+    <t>Multipliers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +120,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="D-DIN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="D-DIN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,14 +163,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,137 +500,1004 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2804B6-385F-4834-A8D9-12DCBB56FE50}">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.5546875" style="1"/>
+    <col min="9" max="13" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>4</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <f>B36/($J$3*I34)</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" ref="J12:M12" si="0">C36/($J$3*J34)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>250</v>
+      </c>
+      <c r="F13" s="1">
+        <v>350</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" ref="I13:I16" si="1">B37/($J$3*I35)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13:J16" si="2">C37/($J$3*J35)</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" ref="K13:K16" si="3">D37/($J$3*K35)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" ref="L13:L16" si="4">E37/($J$3*L35)</f>
+        <v>10</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" ref="M13:M16" si="5">F37/($J$3*M35)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>250</v>
+      </c>
+      <c r="F14" s="1">
+        <v>350</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>5.1282051282051286</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="5"/>
+        <v>12.820512820512821</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
+        <v>3.125</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="5"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5087719298245612</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="5"/>
+        <v>8.7719298245614041</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>250</v>
+      </c>
+      <c r="F21" s="1">
+        <v>350</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <f>((I44/B44) * $B$16)/$J$3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" ref="J21:M21" si="6">((J44/C44) * $B$16)/$J$3</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="6"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="6"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1">
+        <v>95</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22:I25" si="7">((I45/B45) * $B$16)/$J$3</f>
+        <v>25</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" ref="J22:J25" si="8">((J45/C45) * $B$16)/$J$3</f>
+        <v>20</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" ref="K22:K25" si="9">((K45/D45) * $B$16)/$J$3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" ref="L22:L25" si="10">((L45/E45) * $B$16)/$J$3</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" ref="M22:M25" si="11">((M45/F45) * $B$16)/$J$3</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="7"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="8"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="9"/>
+        <v>22.222222222222225</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="10"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="11"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="9"/>
+        <v>27.777777777777782</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="10"/>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="11"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="7"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="8"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="9"/>
+        <v>38.888888888888886</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="10"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="11"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B14/$J$3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:F26" si="12">C14/$J$3</f>
+        <v>25</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="12"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="12"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="12"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B33" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1">
+        <v>30</v>
+      </c>
+      <c r="K34" s="1">
+        <v>30</v>
+      </c>
+      <c r="L34" s="1">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1">
+        <v>30</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <v>50</v>
+      </c>
+      <c r="J35" s="1">
+        <v>50</v>
+      </c>
+      <c r="K35" s="1">
+        <v>50</v>
+      </c>
+      <c r="L35" s="1">
+        <v>50</v>
+      </c>
+      <c r="M35" s="1">
+        <v>50</v>
+      </c>
+      <c r="O35" s="1">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>65</v>
+      </c>
+      <c r="J36" s="1">
+        <v>65</v>
+      </c>
+      <c r="K36" s="1">
+        <v>65</v>
+      </c>
+      <c r="L36" s="1">
+        <v>65</v>
+      </c>
+      <c r="M36" s="1">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>80</v>
+      </c>
+      <c r="J37" s="1">
+        <v>80</v>
+      </c>
+      <c r="K37" s="1">
+        <v>80</v>
+      </c>
+      <c r="L37" s="1">
+        <v>80</v>
+      </c>
+      <c r="M37" s="1">
+        <v>80</v>
+      </c>
+      <c r="O37" s="1">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3">
-        <f>C3*$J$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E4">
-        <f t="shared" ref="E4:E19" si="0">C4*$J$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>95</v>
+      </c>
+      <c r="J38" s="1">
+        <v>95</v>
+      </c>
+      <c r="K38" s="1">
+        <v>95</v>
+      </c>
+      <c r="L38" s="1">
+        <v>95</v>
+      </c>
+      <c r="M38" s="1">
+        <v>95</v>
+      </c>
+      <c r="O38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <f>B$5</f>
+        <v>20</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" ref="C44:F48" si="13">C$5</f>
+        <v>25</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="1">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1">
+        <f>$I44</f>
+        <v>100</v>
+      </c>
+      <c r="K44" s="1">
+        <f>$I44</f>
+        <v>100</v>
+      </c>
+      <c r="L44" s="1">
+        <f>$I44</f>
+        <v>100</v>
+      </c>
+      <c r="M44" s="1">
+        <f>$I44</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <f>B$5</f>
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I45" s="1">
+        <v>150</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" ref="J45:M48" si="14">$I45</f>
+        <v>150</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <f>B$5</f>
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I46" s="1">
+        <v>200</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <f>B$5</f>
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I47" s="1">
+        <v>250</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <f>B$5</f>
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I48" s="1">
+        <v>350</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="14"/>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/cost_sheet.xlsx
+++ b/cost_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GestionOrganisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A0897A-8950-4331-82AB-B0CF996AA73E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDAC9C4-F2FA-4757-9D33-BAE1B041A225}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="0" windowWidth="29724" windowHeight="13980" xr2:uid="{0AAEF879-C82A-4E57-94E3-86B92779800C}"/>
+    <workbookView xWindow="5976" yWindow="0" windowWidth="29724" windowHeight="13980" xr2:uid="{0AAEF879-C82A-4E57-94E3-86B92779800C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>heal zone</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Multipliers</t>
+  </si>
+  <si>
+    <t>terminal placed</t>
+  </si>
+  <si>
+    <t>terminal damaged</t>
+  </si>
+  <si>
+    <t>terminal buff</t>
+  </si>
+  <si>
+    <t>zone heal</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>zone improved</t>
   </si>
 </sst>
 </file>
@@ -500,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2804B6-385F-4834-A8D9-12DCBB56FE50}">
-  <dimension ref="A2:R48"/>
+  <dimension ref="A2:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R8" sqref="R8:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -511,10 +529,12 @@
     <col min="1" max="1" width="27.77734375" style="3" customWidth="1"/>
     <col min="2" max="8" width="11.5546875" style="1"/>
     <col min="9" max="13" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="1"/>
+    <col min="14" max="17" width="11.5546875" style="1"/>
+    <col min="18" max="18" width="29.21875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -522,12 +542,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J3" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -547,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -567,12 +587,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="R8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="T8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -587,7 +610,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -598,8 +621,17 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -638,8 +670,17 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H12" s="5">
         <v>1</v>
       </c>
@@ -665,8 +706,17 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -710,8 +760,17 @@
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -755,8 +814,11 @@
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -789,7 +851,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1502,5 +1564,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>